--- a/outputs/tables/Tables 2 and 3.xlsx
+++ b/outputs/tables/Tables 2 and 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B6740-76DF-7344-9AC1-2BF05BA45FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43AEFB-01ED-6845-B9E9-96DFCB57B40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14340" xr2:uid="{BA869BB3-AC2A-6A4A-A304-557495084847}"/>
+    <workbookView minimized="1" xWindow="3340" yWindow="-21100" windowWidth="28160" windowHeight="21100" xr2:uid="{BA869BB3-AC2A-6A4A-A304-557495084847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,8 +277,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -508,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,9 +547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,12 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,12 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,6 +629,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5AFEF5-7523-9847-82DD-496D4A33DF34}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,37 +989,37 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="28"/>
-      <c r="I3" s="31" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="I3" s="27" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="2"/>
@@ -1025,29 +1028,29 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="59"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1066,31 +1069,31 @@
       <c r="O4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="59"/>
+      <c r="P4" s="53"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3">
         <v>17</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>11</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="28">
         <v>1</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="3">
@@ -1111,10 +1114,10 @@
       <c r="O5" s="3">
         <v>42</v>
       </c>
-      <c r="P5" s="59"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="3">
@@ -1132,10 +1135,10 @@
       <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="28">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="7">
@@ -1162,10 +1165,10 @@
         <f>O5/J5</f>
         <v>0.12352941176470589</v>
       </c>
-      <c r="P6" s="59"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="7">
@@ -1183,44 +1186,47 @@
       <c r="F7" s="7">
         <v>7</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>13</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="59"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="15">
+      <c r="B8" s="3">
+        <f>B5/182</f>
+        <v>9.3406593406593408E-2</v>
+      </c>
+      <c r="C8" s="14">
         <f>C5/78</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>D5/34</f>
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f>E5/28</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>F5/27</f>
         <v>0.40740740740740738</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="32">
         <f>G5/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="29" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="3">
@@ -1241,34 +1247,37 @@
       <c r="O8" s="3">
         <v>15</v>
       </c>
-      <c r="P8" s="59"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="15">
+      <c r="B9" s="3">
+        <f>B6/182</f>
+        <v>0.2032967032967033</v>
+      </c>
+      <c r="C9" s="14">
         <f>C6/78</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>D6/34</f>
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f>E6/28</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f>F6/27</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="32">
         <f>G6/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="29" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2">
@@ -1295,51 +1304,54 @@
         <f>O8/J8</f>
         <v>8.2417582417582416E-2</v>
       </c>
-      <c r="P9" s="59"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16">
+      <c r="B10" s="7">
+        <f>B7/182</f>
+        <v>0.70329670329670335</v>
+      </c>
+      <c r="C10" s="15">
         <f>C7/78</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>D7/34</f>
         <v>0.91176470588235292</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f>E7/28</f>
         <v>0.5</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <f>F7/27</f>
         <v>0.25925925925925924</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <f>G7/15</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="59"/>
+      <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="39"/>
-      <c r="I11" s="33" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="35"/>
+      <c r="I11" s="29" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="3">
@@ -1360,19 +1372,19 @@
       <c r="O11" s="3">
         <v>27</v>
       </c>
-      <c r="P11" s="59"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="33" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="I12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="J12" s="3">
@@ -1399,10 +1411,10 @@
         <f>O11/J11</f>
         <v>0.17088607594936708</v>
       </c>
-      <c r="P12" s="59"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1418,20 +1430,20 @@
       <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="59"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="3">
@@ -1449,10 +1461,10 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="28">
         <v>1</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="7">
@@ -1479,10 +1491,10 @@
         <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="P14" s="59"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="3">
@@ -1500,10 +1512,10 @@
       <c r="F15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="28">
         <v>1</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="30" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="7">
@@ -1530,10 +1542,10 @@
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="P15" s="59"/>
+      <c r="P15" s="53"/>
     </row>
     <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="7">
@@ -1551,66 +1563,66 @@
       <c r="F16" s="7">
         <v>3</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="31">
         <v>8</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14">
         <f>C14/B14</f>
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>D14/B14</f>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f>E14/B14</f>
         <v>1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f>F14/B14</f>
         <v>1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <f>G14/B14</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14">
         <f>C15/B15</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>D15/B15</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <f>E15/B15</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f>F15/B15</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="32">
         <f>G15/B15</f>
         <v>0.1111111111111111</v>
       </c>
@@ -1622,34 +1634,34 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38">
         <f>C16/B16</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="38">
         <f>D16/B16</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="38">
         <f>E16/B16</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="38">
         <f>F16/B16</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="39">
         <f>G16/B16</f>
         <v>0.42105263157894735</v>
       </c>
       <c r="M19" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="19">
         <v>216</v>
       </c>
       <c r="O19">
@@ -1660,7 +1672,7 @@
       <c r="M20" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="19">
         <v>183</v>
       </c>
       <c r="O20">
@@ -1671,7 +1683,7 @@
       <c r="M21" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>103</v>
       </c>
       <c r="O21">
@@ -1679,29 +1691,29 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="M22" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="21">
         <f>N21/N20*100</f>
         <v>56.284153005464475</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="21">
         <f>O21/O20*100</f>
         <v>43.678160919540232</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2"/>
@@ -1709,13 +1721,13 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="47"/>
+      <c r="G23" s="41"/>
       <c r="H23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1733,12 +1745,12 @@
       <c r="F24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1756,12 +1768,12 @@
       <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1779,36 +1791,42 @@
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="65">
+        <f>93/(93+29)</f>
+        <v>0.76229508196721307</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="66">
+        <f>29/(93+29)</f>
+        <v>0.23770491803278687</v>
+      </c>
       <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1821,21 +1839,21 @@
       <c r="F28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="59"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="2"/>
@@ -1843,13 +1861,13 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="47"/>
+      <c r="G30" s="41"/>
       <c r="H30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1867,12 +1885,12 @@
       <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1890,12 +1908,12 @@
       <c r="F32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1913,33 +1931,33 @@
       <c r="F33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="6"/>
@@ -1955,18 +1973,18 @@
       <c r="F35" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H37" s="12"/>
@@ -1995,7 +2013,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -2020,7 +2038,7 @@
         <f>6/14</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>

--- a/outputs/tables/Tables 2 and 3.xlsx
+++ b/outputs/tables/Tables 2 and 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Academica/Doutorado/Tese/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43AEFB-01ED-6845-B9E9-96DFCB57B40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66859AB-9182-EA47-9B2E-D36CFF903B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3340" yWindow="-21100" windowWidth="28160" windowHeight="21100" xr2:uid="{BA869BB3-AC2A-6A4A-A304-557495084847}"/>
+    <workbookView xWindow="-5740" yWindow="-21100" windowWidth="23080" windowHeight="12640" xr2:uid="{BA869BB3-AC2A-6A4A-A304-557495084847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,10 +267,10 @@
     <t>0.428 (0.333)</t>
   </si>
   <si>
-    <t>só com RR</t>
-  </si>
-  <si>
-    <t>com RR e Partial</t>
+    <t>only restricted</t>
+  </si>
+  <si>
+    <t>retricted+partial</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -629,6 +629,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,8 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +966,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,15 +1010,15 @@
       <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
       <c r="I3" s="27" t="s">
         <v>69</v>
       </c>
@@ -1375,15 +1375,15 @@
       <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
       <c r="I12" s="29" t="s">
         <v>44</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="A27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="59">
         <f>93/(93+29)</f>
         <v>0.76229508196721307</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="A28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="60">
         <f>29/(93+29)</f>
         <v>0.23770491803278687</v>
       </c>
